--- a/策划文档/数值用表/MAGIC_card_magic.xlsx
+++ b/策划文档/数值用表/MAGIC_card_magic.xlsx
@@ -27,6 +27,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -36,6 +37,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -55,6 +57,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -64,6 +67,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -84,6 +88,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -93,10 +98,38 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 技能表ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+1、无限制</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2、我方场上有XX个以上风属性的英雄</t>
         </r>
       </text>
     </comment>
@@ -105,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,21 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>card_magic_name_2</t>
-  </si>
-  <si>
-    <t>card_magic_name_3</t>
-  </si>
-  <si>
-    <t>card_magic_name_4</t>
-  </si>
-  <si>
-    <t>card_magic_name_5</t>
-  </si>
-  <si>
-    <t>card_magic_name_6</t>
-  </si>
-  <si>
     <t>card_magic_name_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,53 +192,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>card_magic_spell_quick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_magic_spell_normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_magic_spell_continue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_magic_trap_counter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_magic_trap_normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_magic_trap_continue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔法描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>magic_intro_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magic_intro_2</t>
-  </si>
-  <si>
-    <t>magic_intro_3</t>
-  </si>
-  <si>
-    <t>magic_intro_4</t>
-  </si>
-  <si>
-    <t>magic_intro_5</t>
-  </si>
-  <si>
-    <t>magic_intro_6</t>
-  </si>
-  <si>
     <t>magic_type_trans</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{1,2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能卡图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,7 +236,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
+    <t>card_magic_spell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_cond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1=-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合我方英雄提升40%攻击力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,6 +291,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -299,6 +299,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -631,77 +632,85 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -726,16 +735,19 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -750,10 +762,13 @@
         <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -761,134 +776,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
